--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
   <si>
     <t>question</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>外派人员怎么打卡</t>
+  </si>
+  <si>
+    <t>境外外派补贴标准是什么</t>
   </si>
   <si>
     <t>PDT团队绩效考</t>
@@ -670,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -698,7 +701,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>2.525245</v>
@@ -707,7 +710,7 @@
         <v>0.8734309010706701</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -715,7 +718,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>1.6537582</v>
@@ -724,7 +727,7 @@
         <v>0.0258096220343115</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -732,7 +735,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1.67381</v>
@@ -741,7 +744,7 @@
         <v>0.01205377951623645</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -749,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>2.9611099</v>
@@ -758,7 +761,7 @@
         <v>0.9253649611035</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -766,7 +769,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>1.8885715</v>
@@ -775,7 +778,7 @@
         <v>0.02795439947712845</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -783,7 +786,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>1.623053</v>
@@ -792,7 +795,7 @@
         <v>0.0114196146456484</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -800,16 +803,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0.69896114</v>
+        <v>0.69891775</v>
       </c>
       <c r="D8">
         <v>0.8495971982174474</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -817,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>5.609688</v>
@@ -826,7 +829,7 @@
         <v>0.582134757477509</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -834,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>5.1021957</v>
@@ -843,7 +846,7 @@
         <v>0.9099070060380482</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -851,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>4.9268813</v>
@@ -860,7 +863,7 @@
         <v>0.8936811302242426</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -868,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>4.1820025</v>
@@ -877,7 +880,7 @@
         <v>0.0423245913810851</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -885,7 +888,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>3.5116072</v>
@@ -894,7 +897,7 @@
         <v>0.01013041166358438</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -902,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>0.55769205</v>
@@ -911,7 +914,7 @@
         <v>0.02029348557154201</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -919,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>2.9721174</v>
@@ -928,7 +931,7 @@
         <v>0.9787126482065489</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -936,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>2.5982141</v>
@@ -945,7 +948,7 @@
         <v>0.9466953173537304</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -953,7 +956,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>1.5969944</v>
@@ -962,7 +965,7 @@
         <v>0.5691343781572562</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -970,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>2.5864499</v>
@@ -979,7 +982,7 @@
         <v>0.5548624510864356</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -987,7 +990,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>1.8219188</v>
@@ -996,7 +999,7 @@
         <v>0.4795341461106216</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1004,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>1.7215271</v>
@@ -1013,7 +1016,7 @@
         <v>0.2220246807679208</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1021,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <v>1.5885081</v>
@@ -1030,7 +1033,7 @@
         <v>0.1589561227143433</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1038,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>1.590719</v>
@@ -1047,7 +1050,7 @@
         <v>0.1507775460708185</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1055,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>1.5889528</v>
@@ -1064,7 +1067,7 @@
         <v>0.1466974104253594</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1072,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>1.5804791</v>
@@ -1081,7 +1084,7 @@
         <v>0.1395135742749575</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1089,7 +1092,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>5.1314855</v>
@@ -1098,7 +1101,7 @@
         <v>0.9862576795040977</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1106,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>2.208026</v>
@@ -1115,7 +1118,7 @@
         <v>0.7113306527280003</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1123,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <v>1.3668218</v>
@@ -1132,7 +1135,7 @@
         <v>0.1348898363352275</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1140,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28">
         <v>1.3586028</v>
@@ -1149,7 +1152,7 @@
         <v>0.1287440602562841</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1157,7 +1160,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>1.2971516</v>
@@ -1166,7 +1169,7 @@
         <v>0.01332514770588143</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1174,7 +1177,7 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30">
         <v>1.294362</v>
@@ -1183,7 +1186,7 @@
         <v>0.01044862544511681</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1191,7 +1194,7 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>2.5677433</v>
@@ -1200,7 +1203,7 @@
         <v>0.2178362791958119</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1208,7 +1211,7 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>2.1577256</v>
@@ -1217,7 +1220,7 @@
         <v>0.1532954933993558</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1225,7 +1228,7 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>2.1505597</v>
@@ -1234,7 +1237,7 @@
         <v>0.1321781362674365</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1242,7 +1245,7 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>2.1475604</v>
@@ -1251,7 +1254,7 @@
         <v>0.1159607182539668</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1259,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>2.1423545</v>
@@ -1268,7 +1271,7 @@
         <v>0.1127954062828932</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1276,7 +1279,7 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>2.1454408</v>
@@ -1285,7 +1288,7 @@
         <v>0.09501305198790384</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1293,7 +1296,7 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>2.1493425</v>
@@ -1302,7 +1305,7 @@
         <v>0.07864238118410145</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1310,7 +1313,7 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>2.137516</v>
@@ -1319,7 +1322,7 @@
         <v>0.07436570297412956</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1327,7 +1330,7 @@
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>2.4042616</v>
@@ -1336,7 +1339,160 @@
         <v>0.05213425646829601</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>13.224029</v>
+      </c>
+      <c r="D40">
+        <v>0.9920620058985926</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>3.6851726</v>
+      </c>
+      <c r="D41">
+        <v>0.9580694764363313</v>
+      </c>
+      <c r="E41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>3.188441</v>
+      </c>
+      <c r="D42">
+        <v>0.9358173563909802</v>
+      </c>
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>2.5843477</v>
+      </c>
+      <c r="D43">
+        <v>0.438454558304217</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>1.2935545</v>
+      </c>
+      <c r="D44">
+        <v>0.03321117257069028</v>
+      </c>
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>1.2903252</v>
+      </c>
+      <c r="D45">
+        <v>0.02660710856969722</v>
+      </c>
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>1.2804763</v>
+      </c>
+      <c r="D46">
+        <v>0.0148996432690191</v>
+      </c>
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>1.294671</v>
+      </c>
+      <c r="D47">
+        <v>0.01287074921574678</v>
+      </c>
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>1.2830621</v>
+      </c>
+      <c r="D48">
+        <v>0.01013041166358438</v>
+      </c>
+      <c r="E48" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -704,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>2.525245</v>
+        <v>0.80954605</v>
       </c>
       <c r="D2">
         <v>0.8734309010706701</v>
@@ -721,7 +721,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>1.6537582</v>
+        <v>0.72479165</v>
       </c>
       <c r="D3">
         <v>0.0258096220343115</v>
@@ -738,7 +738,7 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>1.67381</v>
+        <v>0.7146496</v>
       </c>
       <c r="D4">
         <v>0.01205377951623645</v>
@@ -772,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1.8885715</v>
+        <v>0.71608764</v>
       </c>
       <c r="D6">
         <v>0.02795439947712845</v>
@@ -789,7 +789,7 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>1.623053</v>
+        <v>0.70457023</v>
       </c>
       <c r="D7">
         <v>0.0114196146456484</v>
@@ -1129,7 +1129,7 @@
         <v>18</v>
       </c>
       <c r="C27">
-        <v>1.3668218</v>
+        <v>0.81294453</v>
       </c>
       <c r="D27">
         <v>0.1348898363352275</v>
@@ -1146,7 +1146,7 @@
         <v>18</v>
       </c>
       <c r="C28">
-        <v>1.3586028</v>
+        <v>0.8047254700000001</v>
       </c>
       <c r="D28">
         <v>0.1287440602562841</v>
@@ -1163,7 +1163,7 @@
         <v>18</v>
       </c>
       <c r="C29">
-        <v>1.2971516</v>
+        <v>0.7432744</v>
       </c>
       <c r="D29">
         <v>0.01332514770588143</v>
@@ -1180,7 +1180,7 @@
         <v>18</v>
       </c>
       <c r="C30">
-        <v>1.294362</v>
+        <v>0.7404847</v>
       </c>
       <c r="D30">
         <v>0.01044862544511681</v>
@@ -1418,7 +1418,7 @@
         <v>18</v>
       </c>
       <c r="C44">
-        <v>1.2935545</v>
+        <v>0.73382246</v>
       </c>
       <c r="D44">
         <v>0.03321117257069028</v>
@@ -1435,7 +1435,7 @@
         <v>18</v>
       </c>
       <c r="C45">
-        <v>1.2903252</v>
+        <v>0.730593</v>
       </c>
       <c r="D45">
         <v>0.02660710856969722</v>
@@ -1452,7 +1452,7 @@
         <v>18</v>
       </c>
       <c r="C46">
-        <v>1.2804763</v>
+        <v>0.735003</v>
       </c>
       <c r="D46">
         <v>0.0148996432690191</v>
@@ -1469,7 +1469,7 @@
         <v>18</v>
       </c>
       <c r="C47">
-        <v>1.294671</v>
+        <v>0.73001885</v>
       </c>
       <c r="D47">
         <v>0.01287074921574678</v>
@@ -1486,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="C48">
-        <v>1.2830621</v>
+        <v>0.7329172</v>
       </c>
       <c r="D48">
         <v>0.01013041166358438</v>
